--- a/data/groundtruth_cleaned_anon.xlsx
+++ b/data/groundtruth_cleaned_anon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesca/Desktop/zerosumgame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2AC517-6DD3-904E-B305-7DEADC9F6F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8144EA-A277-9040-A180-4516D5BCE2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
     <t>zero_sum</t>
   </si>
   <si>
-    <t>annotation_justifiication_combo</t>
+    <t>annotation_justification_combo</t>
   </si>
 </sst>
 </file>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6213,7 +6213,7 @@
         <v>360</v>
       </c>
       <c r="F194" s="3" t="str">
-        <f t="shared" ref="F194:F257" si="6">_xlfn.CONCAT(D194,", ", E194)</f>
+        <f t="shared" ref="F194:F206" si="6">_xlfn.CONCAT(D194,", ", E194)</f>
         <v>, More of a philosophical argument on the definition of fandom than a zero-sum scenario</v>
       </c>
     </row>
@@ -6447,5 +6447,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>